--- a/2021级材料物理与化学2022年学业奖学金评审得分公示（暂不算寝室长）(1).xlsx
+++ b/2021级材料物理与化学2022年学业奖学金评审得分公示（暂不算寝室长）(1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JYS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F8459D-893F-44C1-9186-6D38800CB1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ABFD05-7C2D-4E01-A9D1-D8B35DACD2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -306,14 +304,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -592,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B904141A-5600-4A3C-B789-4ECACE2AF6BB}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -614,74 +612,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="18"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="19"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" ht="28" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
@@ -697,14 +695,14 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -1566,8 +1564,19 @@
         <v>64.61</v>
       </c>
     </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:H3"/>
@@ -1577,12 +1586,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2021级材料物理与化学2022年学业奖学金评审得分公示（暂不算寝室长）(1).xlsx
+++ b/2021级材料物理与化学2022年学业奖学金评审得分公示（暂不算寝室长）(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ABFD05-7C2D-4E01-A9D1-D8B35DACD2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F32285-A146-47D9-98A6-9FE07CAEB19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>姓名</t>
   </si>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>颜秉禹</t>
+  </si>
+  <si>
+    <t>今晚的看看卡恢复健康</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -255,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,15 +308,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -593,7 +598,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -612,74 +617,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="20"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15" ht="28" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
@@ -695,14 +700,14 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:15" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -1564,6 +1569,11 @@
         <v>64.61</v>
       </c>
     </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H25">
         <v>11</v>
@@ -1571,12 +1581,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:B3"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:H3"/>
@@ -1586,6 +1590,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
